--- a/mathTransformed/HMPSTT_(2017-12-17)_53_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-12-17)_53_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -479,6 +484,11 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>G H S Rajanasiriyuru Belur</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Hassan</t>
         </is>
@@ -507,6 +517,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G H S Hanbalu Sakaleshpura</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -534,6 +549,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G H S Attavara</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -561,6 +581,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>G H S ValagerahallyC R Patna</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -588,6 +613,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>G H S BelavathahalliArsikere</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -615,6 +645,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Govt. High School BalenahallyArasikere</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -642,6 +677,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Govt. Junior CollegeChikkanalu</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -669,6 +709,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>G H S HaradanahalliHolenarasipura</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -696,6 +741,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>G H S Tattekere BareHolenarasipura</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -717,6 +767,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Spandan Human Excellence CentreHingangahat</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Wardha</t>
         </is>
       </c>
@@ -744,6 +799,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G H S ManakaturArsikere</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -771,6 +831,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G H S Kamathi KudigeAlur</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -798,6 +863,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Govt. High School Attavarahosalli</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -825,6 +895,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G G H S Near ParkHolenarasipura</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -852,6 +927,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G H S DevaladakereSakaleshapura</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -879,6 +959,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>G H S KadaluAlur</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -906,6 +991,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H S AnekereChannarayapatna</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -933,6 +1023,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>Govt. High School BelagumbaArsikere</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -960,6 +1055,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G H S Akkanahally CrossChannarayapatna</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -987,6 +1087,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>G H S HongadahallaSakaleshapura</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1014,6 +1119,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G H S (New) Channarayapatna</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1041,6 +1151,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>B S S G J C KonanurArkalgud</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1068,6 +1183,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G J C RayarakoppaluAlur</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1095,6 +1215,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>G H S AthichowdenahalliHolenarasipura</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1122,6 +1247,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Government High SchoolKattaya</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1149,6 +1279,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G H S SathenahallyC R Patna</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1176,6 +1311,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>G H S YelleshpuraHolenarasipura</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1203,6 +1343,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>Girls Govt. P U CollegeBelur</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1230,6 +1375,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G H S ChallapuraArsikere</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1257,6 +1407,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G H S SingapuraHolenarasipura</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1284,6 +1439,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>G H S EachalabeeduSakaleshapura</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1305,6 +1465,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>Spandan Human Excellence CentreHingangahat</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Wardha</t>
         </is>
       </c>
@@ -1332,6 +1497,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Govt. Boys Junior CollegeHolenarasipura</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1359,6 +1529,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>G H S Santhekoppalu</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1386,6 +1561,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G P U C HalebeeduBelur</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1413,6 +1593,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>G H S TagadurChannarayapatna</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1440,6 +1625,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>G H S KallareAlur</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1467,6 +1657,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>G P U C JavagalArasikere</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1494,6 +1689,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>G H S Hirehally KoppaluH N Pur</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1521,6 +1721,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>G H S UchangiSakaleshpura</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1548,6 +1753,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>G H S GandasiArsikere</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1575,6 +1785,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>Govt. PU CollegeHigh School SectionSomanahally Holenarasipura</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1602,6 +1817,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>G H S HurudiSakaleshpur</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1629,6 +1849,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>G H S DoddahallyH N Pur</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1656,6 +1881,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>G H S Tarimara. Belur</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1683,6 +1913,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>G H S HanagalluArkalgud</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1710,6 +1945,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>Govt. High SchoolHaranahallyArasikere</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1737,6 +1977,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>G H S UdevaraSakaleshapur</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1764,6 +2009,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>Govt. Junior College (H S) NagaranahallyHolenarasipura</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1791,6 +2041,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>G H S Changadihally Sakleshpur</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1818,6 +2073,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>G H S BannurArakalagud</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1845,6 +2105,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>Govt. High School KundurAlur</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1871,6 +2136,11 @@
         </is>
       </c>
       <c r="F55" t="inlineStr">
+        <is>
+          <t>G H S LingappanakoppaluBelur</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>Hassan</t>
         </is>

--- a/mathTransformed/HMPSTT_(2017-12-17)_53_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-12-17)_53_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
